--- a/Data/Distribution of fans in Lublin Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Lublin Voivodship/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\lublin-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50140776-586E-4DB9-A238-E8B48171452A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D65C35-B672-4A5D-BA3E-770E36E59060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Motor L." sheetId="23" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
   <si>
     <t>Klub</t>
   </si>
@@ -306,12 +306,18 @@
   <si>
     <t>Krasnobród (3 000)</t>
   </si>
+  <si>
+    <t>USA (Emigracja)</t>
+  </si>
+  <si>
+    <t>Niemcy (Emigracja)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +475,26 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="20">
@@ -652,7 +678,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,6 +733,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="11" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -4990,7 +5022,7 @@
   <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5105,8 +5137,8 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>50</v>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5125,7 +5157,9 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5755,6 +5789,7 @@
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -6928,8 +6963,8 @@
       <c r="P111" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A7">
-    <sortCondition ref="A2:A7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A8">
+    <sortCondition ref="A6:A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -8888,7 +8923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8AD5E7-B962-474C-B434-531D22A28EE5}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -8964,8 +8999,8 @@
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>23</v>
+      <c r="A5" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -8985,7 +9020,7 @@
     </row>
     <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -9004,7 +9039,9 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -9796,6 +9833,7 @@
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -10833,8 +10871,8 @@
       <c r="P111" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
-    <sortCondition ref="A2:A6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A7">
+    <sortCondition ref="A2:A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -16696,7 +16734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -16776,7 +16814,7 @@
       </c>
       <c r="B4" s="5">
         <f>COUNTA('Chełmianka Ch.'!A:A) - 1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5">
         <v>4</v>
@@ -16812,7 +16850,7 @@
       </c>
       <c r="B6" s="5">
         <f>COUNTA('Górnik Ł.'!A:A) - 1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>

--- a/Data/Distribution of fans in Lublin Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Lublin Voivodship/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\lublin-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D65C35-B672-4A5D-BA3E-770E36E59060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BC6288-548A-471C-8B48-3DAD88E6FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Motor L." sheetId="23" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
   <si>
     <t>Klub</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Górnik Ł.</t>
   </si>
   <si>
-    <t>Unia H.</t>
-  </si>
-  <si>
     <t>Orlęta RP.</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
   </si>
   <si>
     <t>Biłgoraj (25 000)</t>
-  </si>
-  <si>
-    <t>Hrubieszów (16 000)</t>
   </si>
   <si>
     <t>Bielsk Podlaski (26 000)</t>
@@ -678,7 +672,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -730,9 +724,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5137,8 +5128,8 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>87</v>
+      <c r="A7" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -8923,7 +8914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8AD5E7-B962-474C-B434-531D22A28EE5}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -8999,8 +8990,8 @@
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>88</v>
+      <c r="A5" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -12868,7 +12859,7 @@
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -16734,8 +16725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16781,13 +16772,13 @@
         <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16802,10 +16793,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16820,17 +16811,17 @@
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="8">
         <f>COUNTA('Avia Ś.'!A:A) - 1</f>
         <v>2</v>
       </c>
@@ -16838,10 +16829,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16855,11 +16846,11 @@
       <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>78</v>
+      <c r="D6" s="8" t="s">
+        <v>77</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>82</v>
+      <c r="E6" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16874,47 +16865,31 @@
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="B8" s="5">
         <f>COUNTA('Orlęta RP.'!A:A) - 1</f>
         <v>9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>81</v>
+      <c r="D8" s="5" t="s">
+        <v>79</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>85</v>
+      <c r="E8" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16922,8 +16897,8 @@
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
-    <sortCondition descending="1" ref="B2:B15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
+    <sortCondition descending="1" ref="B2:B14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
